--- a/Fig 5.xlsx
+++ b/Fig 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\alonsela\Dropbox\dropbox\Dropbox\_WORK_IN_PROGRESS\Ariel-Culs\article\PlosOne\git-filderLocal\tweets_politics_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888CBBBB-B7F2-49E7-9C5F-7DA4C013ABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49E51BC-03BF-4017-9631-440A1DB33C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3828" yWindow="1716" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig 5 -Network" sheetId="6" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Politics</t>
   </si>
@@ -119,9 +117,6 @@
   </si>
   <si>
     <t>Ottawa Shooting Disaster</t>
-  </si>
-  <si>
-    <t>עמודה1</t>
   </si>
   <si>
     <t>ID</t>
@@ -762,53 +757,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -831,7 +823,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1322,7 +1314,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1858,7 +1850,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2571,7 +2563,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4581,40 +4573,36 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9" unboundColumnsRight="1">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="6">
       <queryTableField id="1" name="TYPE" tableColumnId="1"/>
       <queryTableField id="2" name="NAME" tableColumnId="2"/>
       <queryTableField id="3" name="AVERAGE DEGREE" tableColumnId="3"/>
       <queryTableField id="4" name="NUMBER OF CLUSTERS" tableColumnId="4"/>
       <queryTableField id="5" name="DEGREE DISTRIBUTION SLOPE" tableColumnId="5"/>
       <queryTableField id="6" name="Column1" tableColumnId="6"/>
-      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="slope_and_score_data_points4" displayName="slope_and_score_data_points4" ref="A1:G17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="slope_and_score_data_points4" displayName="slope_and_score_data_points4" ref="A1:F17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="TYPE" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="NAME" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="TYPE" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="NAME" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="AVERAGE DEGREE" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="NUMBER OF CLUSTERS" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="DEGREE DISTRIBUTION SLOPE" queryTableFieldId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="עמודה1" queryTableFieldId="8" dataDxfId="0">
-      <calculatedColumnFormula>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4910,10 +4898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4926,9 +4914,9 @@
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4945,11 +4933,8 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f>A17+1</f>
         <v>7</v>
@@ -4969,12 +4954,8 @@
       <c r="F2" s="5">
         <v>0.82399999999999995</v>
       </c>
-      <c r="G2">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.82399999999999995</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>8</v>
@@ -4994,12 +4975,8 @@
       <c r="F3" s="5">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G3">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.81599999999999995</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>9</v>
@@ -5019,12 +4996,8 @@
       <c r="F4" s="5">
         <v>0.84</v>
       </c>
-      <c r="G4">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.84</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5044,12 +5017,8 @@
       <c r="F5" s="5">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G5">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.83299999999999996</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5069,12 +5038,8 @@
       <c r="F6" s="5">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G6">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.80200000000000005</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5094,12 +5059,8 @@
       <c r="F7" s="5">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G7">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.85799999999999998</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5119,12 +5080,8 @@
       <c r="F8" s="5">
         <v>0.82899999999999996</v>
       </c>
-      <c r="G8">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.82899999999999996</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5144,12 +5101,8 @@
       <c r="F9" s="5">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G9">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.86399999999999999</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5169,12 +5122,8 @@
       <c r="F10" s="5">
         <v>0.874</v>
       </c>
-      <c r="G10">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.874</v>
-      </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5194,12 +5143,8 @@
       <c r="F11" s="8">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G11">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.88300000000000001</v>
-      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5218,12 +5163,8 @@
       <c r="F12" s="3">
         <v>0.89</v>
       </c>
-      <c r="G12">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.89</v>
-      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>A12+1</f>
         <v>2</v>
@@ -5243,12 +5184,8 @@
       <c r="F13" s="5">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G13">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.89700000000000002</v>
-      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" ref="A14:A17" si="1">A13+1</f>
         <v>3</v>
@@ -5268,12 +5205,8 @@
       <c r="F14" s="5">
         <v>0.89300000000000002</v>
       </c>
-      <c r="G14">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.89300000000000002</v>
-      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5293,12 +5226,8 @@
       <c r="F15" s="5">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G15">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.91400000000000003</v>
-      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5318,12 +5247,8 @@
       <c r="F16" s="5">
         <v>0.91100000000000003</v>
       </c>
-      <c r="G16">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.91100000000000003</v>
-      </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5342,10 +5267,6 @@
       </c>
       <c r="F17" s="8">
         <v>0.91800000000000004</v>
-      </c>
-      <c r="G17">
-        <f>-slope_and_score_data_points4[[#This Row],[DEGREE DISTRIBUTION SLOPE]]</f>
-        <v>-0.91800000000000004</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="18" x14ac:dyDescent="0.35">
@@ -5358,7 +5279,7 @@
     </row>
     <row r="55" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="10">
         <f>TTEST(D2:D11,D12:D17,2,2)</f>
@@ -5367,7 +5288,7 @@
     </row>
     <row r="56" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B56" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="10">
         <f>TTEST(F2:F11,F12:F17,2,2)</f>
@@ -5376,7 +5297,7 @@
     </row>
     <row r="57" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B57" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="10">
         <f>TTEST(E2:E11,E12:E17,2,2)</f>
